--- a/run_log/run_results/train_history/training_history_run_17.xlsx
+++ b/run_log/run_results/train_history/training_history_run_17.xlsx
@@ -395,702 +395,702 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.04597761482000351</v>
+        <v>0.09860586374998093</v>
       </c>
       <c r="B2">
-        <v>0.9874492287635803</v>
+        <v>0.971488893032074</v>
       </c>
       <c r="C2">
-        <v>0.01678538136184216</v>
+        <v>0.02518557384610176</v>
       </c>
       <c r="D2">
-        <v>0.9970991611480713</v>
+        <v>0.9964196085929871</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.006587640382349491</v>
+        <v>0.02661536261439323</v>
       </c>
       <c r="B3">
-        <v>0.9985628724098206</v>
+        <v>0.9903790354728699</v>
       </c>
       <c r="C3">
-        <v>0.007468089926987886</v>
+        <v>0.01264103967696428</v>
       </c>
       <c r="D3">
-        <v>0.9981539845466614</v>
+        <v>0.9973146915435791</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>0.002683402271941304</v>
+        <v>0.01646766066551208</v>
       </c>
       <c r="B4">
-        <v>0.9991568922996521</v>
+        <v>0.994846522808075</v>
       </c>
       <c r="C4">
-        <v>0.0039607142098248</v>
+        <v>0.003808316309005022</v>
       </c>
       <c r="D4">
-        <v>0.9993407130241394</v>
+        <v>0.9983888268470764</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.001088062068447471</v>
+        <v>0.01311630755662918</v>
       </c>
       <c r="B5">
-        <v>0.9996167421340942</v>
+        <v>0.9951455593109131</v>
       </c>
       <c r="C5">
-        <v>0.003188341157510877</v>
+        <v>0.004480447620153427</v>
       </c>
       <c r="D5">
-        <v>0.9996044039726257</v>
+        <v>0.9983888268470764</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.00133760180324316</v>
+        <v>0.01254670321941376</v>
       </c>
       <c r="B6">
-        <v>0.9996167421340942</v>
+        <v>0.9948993325233459</v>
       </c>
       <c r="C6">
-        <v>0.003452052595093846</v>
+        <v>0.005109180696308613</v>
       </c>
       <c r="D6">
-        <v>0.9994725584983826</v>
+        <v>0.9980307817459106</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.0003704282571561635</v>
+        <v>0.0122664300724864</v>
       </c>
       <c r="B7">
-        <v>0.9999042153358459</v>
+        <v>0.9948289394378662</v>
       </c>
       <c r="C7">
-        <v>0.003521253587678075</v>
+        <v>0.00445084972307086</v>
       </c>
       <c r="D7">
-        <v>0.9996044039726257</v>
+        <v>0.9982098340988159</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.0007312772213481367</v>
+        <v>0.01278691738843918</v>
       </c>
       <c r="B8">
-        <v>0.9997700452804565</v>
+        <v>0.9945123791694641</v>
       </c>
       <c r="C8">
-        <v>0.003557837102562189</v>
+        <v>0.00468931021168828</v>
       </c>
       <c r="D8">
-        <v>0.9997363090515137</v>
+        <v>0.9982098340988159</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>0.0003077973378822207</v>
+        <v>0.01142546813935041</v>
       </c>
       <c r="B9">
-        <v>0.9998850226402283</v>
+        <v>0.9950399994850159</v>
       </c>
       <c r="C9">
-        <v>0.002641337923705578</v>
+        <v>0.004494108259677887</v>
       </c>
       <c r="D9">
-        <v>0.9996044039726257</v>
+        <v>0.9983888268470764</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>0.0005624453769996762</v>
+        <v>0.01211865339428186</v>
       </c>
       <c r="B10">
-        <v>0.9998083710670471</v>
+        <v>0.99477618932724</v>
       </c>
       <c r="C10">
-        <v>0.004955462645739317</v>
+        <v>0.004671231843531132</v>
       </c>
       <c r="D10">
-        <v>0.9997363090515137</v>
+        <v>0.9982098340988159</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>0.0005723627982661128</v>
+        <v>0.01113103609532118</v>
       </c>
       <c r="B11">
-        <v>0.9997892379760742</v>
+        <v>0.9954973459243774</v>
       </c>
       <c r="C11">
-        <v>0.003292902139946818</v>
+        <v>0.004574078600853682</v>
       </c>
       <c r="D11">
-        <v>0.9996044039726257</v>
+        <v>0.9983888268470764</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>0.0001152864206233062</v>
+        <v>0.01219736319035292</v>
       </c>
       <c r="B12">
-        <v>0.9999616742134094</v>
+        <v>0.9946002960205078</v>
       </c>
       <c r="C12">
-        <v>0.002511108061298728</v>
+        <v>0.004766233265399933</v>
       </c>
       <c r="D12">
-        <v>0.9997363090515137</v>
+        <v>0.9982098340988159</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>0.0002069348120130599</v>
+        <v>0.01185161899775267</v>
       </c>
       <c r="B13">
-        <v>0.9999233484268188</v>
+        <v>0.9948993325233459</v>
       </c>
       <c r="C13">
-        <v>0.002918774262070656</v>
+        <v>0.004861451219767332</v>
       </c>
       <c r="D13">
-        <v>0.9997363090515137</v>
+        <v>0.9982098340988159</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>0.0003801249258685857</v>
+        <v>0.01197303365916014</v>
       </c>
       <c r="B14">
-        <v>0.9999042153358459</v>
+        <v>0.9946706295013428</v>
       </c>
       <c r="C14">
-        <v>0.002780294045805931</v>
+        <v>0.004503251984715462</v>
       </c>
       <c r="D14">
-        <v>0.9997363090515137</v>
+        <v>0.9983888268470764</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>0.0007728635100647807</v>
+        <v>0.01186482422053814</v>
       </c>
       <c r="B15">
-        <v>0.9998083710670471</v>
+        <v>0.9946002960205078</v>
       </c>
       <c r="C15">
-        <v>0.00431485939770937</v>
+        <v>0.004596328362822533</v>
       </c>
       <c r="D15">
-        <v>0.9994725584983826</v>
+        <v>0.9983888268470764</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>0.0001772432588040829</v>
+        <v>0.0121602788567543</v>
       </c>
       <c r="B16">
-        <v>0.9999616742134094</v>
+        <v>0.9946178793907166</v>
       </c>
       <c r="C16">
-        <v>0.003862124867737293</v>
+        <v>0.004735705442726612</v>
       </c>
       <c r="D16">
-        <v>0.9993407130241394</v>
+        <v>0.9982098340988159</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>0.0003176215686835349</v>
+        <v>0.01226719655096531</v>
       </c>
       <c r="B17">
-        <v>0.9999042153358459</v>
+        <v>0.9951103925704956</v>
       </c>
       <c r="C17">
-        <v>0.003387714503332973</v>
+        <v>0.004877014551311731</v>
       </c>
       <c r="D17">
-        <v>0.9997363090515137</v>
+        <v>0.9983888268470764</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>6.608093826798722E-05</v>
+        <v>0.01121153589338064</v>
       </c>
       <c r="B18">
-        <v>0.9999808669090271</v>
+        <v>0.9948993325233459</v>
       </c>
       <c r="C18">
-        <v>0.002032558666542172</v>
+        <v>0.004190259147435427</v>
       </c>
       <c r="D18">
-        <v>0.9996044039726257</v>
+        <v>0.9983888268470764</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>5.084206713945605E-05</v>
+        <v>0.01163792703300714</v>
       </c>
       <c r="B19">
-        <v>0.9999808669090271</v>
+        <v>0.9948816895484924</v>
       </c>
       <c r="C19">
-        <v>0.004081869497895241</v>
+        <v>0.003926425706595182</v>
       </c>
       <c r="D19">
-        <v>0.9997363090515137</v>
+        <v>0.9983888268470764</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>0.0006515916320495307</v>
+        <v>0.01082005351781845</v>
       </c>
       <c r="B20">
-        <v>0.9998083710670471</v>
+        <v>0.9953742027282715</v>
       </c>
       <c r="C20">
-        <v>0.005635804496705532</v>
+        <v>0.003532412461936474</v>
       </c>
       <c r="D20">
-        <v>0.9997363090515137</v>
+        <v>0.9983888268470764</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>0.0003596199385356158</v>
+        <v>0.01082348823547363</v>
       </c>
       <c r="B21">
-        <v>0.9999042153358459</v>
+        <v>0.9953214526176453</v>
       </c>
       <c r="C21">
-        <v>0.00608751131221652</v>
+        <v>0.003465659916400909</v>
       </c>
       <c r="D21">
-        <v>0.9996044039726257</v>
+        <v>0.9983888268470764</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>0.0005728185060434043</v>
+        <v>0.01111641898751259</v>
       </c>
       <c r="B22">
-        <v>0.9999042153358459</v>
+        <v>0.9949169158935547</v>
       </c>
       <c r="C22">
-        <v>0.003336015855893493</v>
+        <v>0.003731324104592204</v>
       </c>
       <c r="D22">
-        <v>0.9997363090515137</v>
+        <v>0.9983888268470764</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>0.0003546671941876411</v>
+        <v>0.01132191065698862</v>
       </c>
       <c r="B23">
-        <v>0.9999233484268188</v>
+        <v>0.9951807260513306</v>
       </c>
       <c r="C23">
-        <v>0.002871292643249035</v>
+        <v>0.003710911376401782</v>
       </c>
       <c r="D23">
-        <v>0.9997363090515137</v>
+        <v>0.9983888268470764</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>0.0002038710517808795</v>
+        <v>0.01050199754536152</v>
       </c>
       <c r="B24">
-        <v>0.9999233484268188</v>
+        <v>0.9949872493743896</v>
       </c>
       <c r="C24">
-        <v>0.002311358926817775</v>
+        <v>0.003639706643298268</v>
       </c>
       <c r="D24">
-        <v>0.9997363090515137</v>
+        <v>0.9983888268470764</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>5.655924269376555E-06</v>
+        <v>0.01137677021324635</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0.9947234392166138</v>
       </c>
       <c r="C25">
-        <v>0.002503510098904371</v>
+        <v>0.00347747397609055</v>
       </c>
       <c r="D25">
-        <v>0.9997363090515137</v>
+        <v>0.9983888268470764</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>3.008488420164213E-06</v>
+        <v>0.01186009123921394</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0.9944244027137756</v>
       </c>
       <c r="C26">
-        <v>0.00299458671361208</v>
+        <v>0.003437234088778496</v>
       </c>
       <c r="D26">
-        <v>0.9997363090515137</v>
+        <v>0.9983888268470764</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>7.702021207478538E-07</v>
+        <v>0.01105994638055563</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0.9949169158935547</v>
       </c>
       <c r="C27">
-        <v>0.003141413908451796</v>
+        <v>0.00333186355419457</v>
       </c>
       <c r="D27">
-        <v>0.9997363090515137</v>
+        <v>0.9983888268470764</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>7.295121804418159E-07</v>
+        <v>0.01140361092984676</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0.994705855846405</v>
       </c>
       <c r="C28">
-        <v>0.003784536384046078</v>
+        <v>0.004107674583792686</v>
       </c>
       <c r="D28">
-        <v>0.9997363090515137</v>
+        <v>0.9983888268470764</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>9.516429417999461E-05</v>
+        <v>0.01171308010816574</v>
       </c>
       <c r="B29">
-        <v>0.9999616742134094</v>
+        <v>0.99477618932724</v>
       </c>
       <c r="C29">
-        <v>0.003786525689065456</v>
+        <v>0.003441446227952838</v>
       </c>
       <c r="D29">
-        <v>0.9997363090515137</v>
+        <v>0.9983888268470764</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>0.0001408304669894278</v>
+        <v>0.01109122298657894</v>
       </c>
       <c r="B30">
-        <v>0.9999808669090271</v>
+        <v>0.9948113560676575</v>
       </c>
       <c r="C30">
-        <v>0.004595736041665077</v>
+        <v>0.003396149957552552</v>
       </c>
       <c r="D30">
-        <v>0.9997363090515137</v>
+        <v>0.9983888268470764</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>0.0008080639527179301</v>
+        <v>0.01133560016751289</v>
       </c>
       <c r="B31">
-        <v>0.9998850226402283</v>
+        <v>0.9949169158935547</v>
       </c>
       <c r="C31">
-        <v>0.003453873563557863</v>
+        <v>0.003512562718242407</v>
       </c>
       <c r="D31">
-        <v>0.9997363090515137</v>
+        <v>0.9983888268470764</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>0.0001052380030159838</v>
+        <v>0.01069898810237646</v>
       </c>
       <c r="B32">
-        <v>0.9999425411224365</v>
+        <v>0.9953566193580627</v>
       </c>
       <c r="C32">
-        <v>0.004505013581365347</v>
+        <v>0.003510243725031614</v>
       </c>
       <c r="D32">
-        <v>0.9997363090515137</v>
+        <v>0.9983888268470764</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>0.000108290791104082</v>
+        <v>0.01149099785834551</v>
       </c>
       <c r="B33">
-        <v>0.9999425411224365</v>
+        <v>0.994846522808075</v>
       </c>
       <c r="C33">
-        <v>0.004249116405844688</v>
+        <v>0.003312453627586365</v>
       </c>
       <c r="D33">
-        <v>0.9997363090515137</v>
+        <v>0.9983888268470764</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>1.996702167161857E-06</v>
+        <v>0.01052993629127741</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>0.9953566193580627</v>
       </c>
       <c r="C34">
-        <v>0.004250278230756521</v>
+        <v>0.003386885160580277</v>
       </c>
       <c r="D34">
-        <v>0.9997363090515137</v>
+        <v>0.9983888268470764</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>1.036615913108108E-06</v>
+        <v>0.01091468241065741</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0.9948289394378662</v>
       </c>
       <c r="C35">
-        <v>0.004686354659497738</v>
+        <v>0.003334768349304795</v>
       </c>
       <c r="D35">
-        <v>0.9997363090515137</v>
+        <v>0.9983888268470764</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>5.494433207786642E-05</v>
+        <v>0.01085885148495436</v>
       </c>
       <c r="B36">
-        <v>0.9999616742134094</v>
+        <v>0.9950928092002869</v>
       </c>
       <c r="C36">
-        <v>0.004451637156307697</v>
+        <v>0.003491014009341598</v>
       </c>
       <c r="D36">
-        <v>0.9997363090515137</v>
+        <v>0.9983888268470764</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>6.257703353185207E-05</v>
+        <v>0.01094266586005688</v>
       </c>
       <c r="B37">
-        <v>0.9999808669090271</v>
+        <v>0.9950751662254333</v>
       </c>
       <c r="C37">
-        <v>0.004335897974669933</v>
+        <v>0.003286988940089941</v>
       </c>
       <c r="D37">
-        <v>0.9997363090515137</v>
+        <v>0.9983888268470764</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>0.0002312172437086701</v>
+        <v>0.01109958812594414</v>
       </c>
       <c r="B38">
-        <v>0.9999233484268188</v>
+        <v>0.9948993325233459</v>
       </c>
       <c r="C38">
-        <v>0.006279861088842154</v>
+        <v>0.003298672381788492</v>
       </c>
       <c r="D38">
-        <v>0.9997363090515137</v>
+        <v>0.9983888268470764</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>0.0001214381554746069</v>
+        <v>0.01118524372577667</v>
       </c>
       <c r="B39">
-        <v>0.9999616742134094</v>
+        <v>0.9949520826339722</v>
       </c>
       <c r="C39">
-        <v>0.003696597879752517</v>
+        <v>0.003441807115450501</v>
       </c>
       <c r="D39">
-        <v>0.9997363090515137</v>
+        <v>0.9983888268470764</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>6.729437882313505E-05</v>
+        <v>0.01089760567992926</v>
       </c>
       <c r="B40">
-        <v>0.9999808669090271</v>
+        <v>0.9950224161148071</v>
       </c>
       <c r="C40">
-        <v>0.006320063956081867</v>
+        <v>0.003245218424126506</v>
       </c>
       <c r="D40">
-        <v>0.9997363090515137</v>
+        <v>0.9983888268470764</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>0.0005635471316054463</v>
+        <v>0.01111915521323681</v>
       </c>
       <c r="B41">
-        <v>0.9999233484268188</v>
+        <v>0.9949344992637634</v>
       </c>
       <c r="C41">
-        <v>0.003038403112441301</v>
+        <v>0.003275980241596699</v>
       </c>
       <c r="D41">
-        <v>0.9997363090515137</v>
+        <v>0.9983888268470764</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>0.0003423390735406429</v>
+        <v>0.0106629841029644</v>
       </c>
       <c r="B42">
-        <v>0.9999425411224365</v>
+        <v>0.9952334761619568</v>
       </c>
       <c r="C42">
-        <v>0.001806808169931173</v>
+        <v>0.003240708261728287</v>
       </c>
       <c r="D42">
-        <v>0.9996044039726257</v>
+        <v>0.9983888268470764</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>0.0001766514760674909</v>
+        <v>0.01059510000050068</v>
       </c>
       <c r="B43">
-        <v>0.9999808669090271</v>
+        <v>0.9952334761619568</v>
       </c>
       <c r="C43">
-        <v>0.003207858419045806</v>
+        <v>0.003229593392461538</v>
       </c>
       <c r="D43">
-        <v>0.9996044039726257</v>
+        <v>0.9983888268470764</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>6.488293001893908E-05</v>
+        <v>0.01049361750483513</v>
       </c>
       <c r="B44">
-        <v>0.9999616742134094</v>
+        <v>0.9951807260513306</v>
       </c>
       <c r="C44">
-        <v>0.01135317794978619</v>
+        <v>0.003406606148928404</v>
       </c>
       <c r="D44">
-        <v>0.9997363090515137</v>
+        <v>0.9983888268470764</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>0.0001395084836985916</v>
+        <v>0.01156157348304987</v>
       </c>
       <c r="B45">
-        <v>0.9999425411224365</v>
+        <v>0.9949169158935547</v>
       </c>
       <c r="C45">
-        <v>0.01098609901964664</v>
+        <v>0.003254567738622427</v>
       </c>
       <c r="D45">
-        <v>0.9997363090515137</v>
+        <v>0.9983888268470764</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>1.949322540895082E-05</v>
+        <v>0.01058928575366735</v>
       </c>
       <c r="B46">
-        <v>0.9999808669090271</v>
+        <v>0.9950575828552246</v>
       </c>
       <c r="C46">
-        <v>0.01074787229299545</v>
+        <v>0.003156148362904787</v>
       </c>
       <c r="D46">
-        <v>0.9997363090515137</v>
+        <v>0.9983888268470764</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>0.0004033025470562279</v>
+        <v>0.01091843005269766</v>
       </c>
       <c r="B47">
-        <v>0.9999425411224365</v>
+        <v>0.9949696660041809</v>
       </c>
       <c r="C47">
-        <v>0.009502164088189602</v>
+        <v>0.003117673331871629</v>
       </c>
       <c r="D47">
-        <v>0.9997363090515137</v>
+        <v>0.9983888268470764</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>0.0003663447278086096</v>
+        <v>0.01047874242067337</v>
       </c>
       <c r="B48">
-        <v>0.9999425411224365</v>
+        <v>0.9952510595321655</v>
       </c>
       <c r="C48">
-        <v>0.005797839723527431</v>
+        <v>0.003077966161072254</v>
       </c>
       <c r="D48">
-        <v>0.9997363090515137</v>
+        <v>0.9983888268470764</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>3.829295565083157E-06</v>
+        <v>0.01141723897308111</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>0.9945475459098816</v>
       </c>
       <c r="C49">
-        <v>0.005980095826089382</v>
+        <v>0.00321592390537262</v>
       </c>
       <c r="D49">
-        <v>0.9997363090515137</v>
+        <v>0.9983888268470764</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>6.552247214131057E-06</v>
+        <v>0.01064102258533239</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0.9949344992637634</v>
       </c>
       <c r="C50">
-        <v>0.006420514080673456</v>
+        <v>0.003173034870997071</v>
       </c>
       <c r="D50">
-        <v>0.9997363090515137</v>
+        <v>0.9983888268470764</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>0.0004550445883069187</v>
+        <v>0.01126331277191639</v>
       </c>
       <c r="B51">
-        <v>0.9999616742134094</v>
+        <v>0.9948816895484924</v>
       </c>
       <c r="C51">
-        <v>0.006603232119232416</v>
+        <v>0.003117162268608809</v>
       </c>
       <c r="D51">
-        <v>0.9996044039726257</v>
+        <v>0.9983888268470764</v>
       </c>
     </row>
   </sheetData>

--- a/run_log/run_results/train_history/training_history_run_17.xlsx
+++ b/run_log/run_results/train_history/training_history_run_17.xlsx
@@ -395,702 +395,702 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.09860586374998093</v>
+        <v>0.05952403694391251</v>
       </c>
       <c r="B2">
-        <v>0.971488893032074</v>
+        <v>0.9840734601020813</v>
       </c>
       <c r="C2">
-        <v>0.02518557384610176</v>
+        <v>0.03294847160577774</v>
       </c>
       <c r="D2">
-        <v>0.9964196085929871</v>
+        <v>0.995579719543457</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.02661536261439323</v>
+        <v>0.009315329603850842</v>
       </c>
       <c r="B3">
-        <v>0.9903790354728699</v>
+        <v>0.9985074400901794</v>
       </c>
       <c r="C3">
-        <v>0.01264103967696428</v>
+        <v>0.02383473142981529</v>
       </c>
       <c r="D3">
-        <v>0.9973146915435791</v>
+        <v>0.995579719543457</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>0.01646766066551208</v>
+        <v>0.004900739993900061</v>
       </c>
       <c r="B4">
-        <v>0.994846522808075</v>
+        <v>0.9988410472869873</v>
       </c>
       <c r="C4">
-        <v>0.003808316309005022</v>
+        <v>0.0116785941645503</v>
       </c>
       <c r="D4">
-        <v>0.9983888268470764</v>
+        <v>0.9986399412155151</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.01311630755662918</v>
+        <v>0.002231738762930036</v>
       </c>
       <c r="B5">
-        <v>0.9951455593109131</v>
+        <v>0.9993854165077209</v>
       </c>
       <c r="C5">
-        <v>0.004480447620153427</v>
+        <v>0.009853780269622803</v>
       </c>
       <c r="D5">
-        <v>0.9983888268470764</v>
+        <v>0.9986399412155151</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.01254670321941376</v>
+        <v>0.00176722917240113</v>
       </c>
       <c r="B6">
-        <v>0.9948993325233459</v>
+        <v>0.9994907975196838</v>
       </c>
       <c r="C6">
-        <v>0.005109180696308613</v>
+        <v>0.0007578931981697679</v>
       </c>
       <c r="D6">
-        <v>0.9980307817459106</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.0122664300724864</v>
+        <v>0.001555059570819139</v>
       </c>
       <c r="B7">
-        <v>0.9948289394378662</v>
+        <v>0.9996312260627747</v>
       </c>
       <c r="C7">
-        <v>0.00445084972307086</v>
+        <v>0.0004766620113514364</v>
       </c>
       <c r="D7">
-        <v>0.9982098340988159</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.01278691738843918</v>
+        <v>0.001264742226339877</v>
       </c>
       <c r="B8">
-        <v>0.9945123791694641</v>
+        <v>0.9996312260627747</v>
       </c>
       <c r="C8">
-        <v>0.00468931021168828</v>
+        <v>0.0006716083735227585</v>
       </c>
       <c r="D8">
-        <v>0.9982098340988159</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>0.01142546813935041</v>
+        <v>0.001739514176733792</v>
       </c>
       <c r="B9">
-        <v>0.9950399994850159</v>
+        <v>0.9996137022972107</v>
       </c>
       <c r="C9">
-        <v>0.004494108259677887</v>
+        <v>0.001007005921564996</v>
       </c>
       <c r="D9">
-        <v>0.9983888268470764</v>
+        <v>0.9993199706077576</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>0.01211865339428186</v>
+        <v>0.0008868636796250939</v>
       </c>
       <c r="B10">
-        <v>0.99477618932724</v>
+        <v>0.9998244047164917</v>
       </c>
       <c r="C10">
-        <v>0.004671231843531132</v>
+        <v>0.0005952870124019682</v>
       </c>
       <c r="D10">
-        <v>0.9982098340988159</v>
+        <v>0.9996599555015564</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>0.01113103609532118</v>
+        <v>0.0006371597992256284</v>
       </c>
       <c r="B11">
-        <v>0.9954973459243774</v>
+        <v>0.9998419880867004</v>
       </c>
       <c r="C11">
-        <v>0.004574078600853682</v>
+        <v>0.002753538312390447</v>
       </c>
       <c r="D11">
-        <v>0.9983888268470764</v>
+        <v>0.9993199706077576</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>0.01219736319035292</v>
+        <v>0.001135466271080077</v>
       </c>
       <c r="B12">
-        <v>0.9946002960205078</v>
+        <v>0.9997190237045288</v>
       </c>
       <c r="C12">
-        <v>0.004766233265399933</v>
+        <v>0.0001414724247297272</v>
       </c>
       <c r="D12">
-        <v>0.9982098340988159</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>0.01185161899775267</v>
+        <v>0.00044366589281708</v>
       </c>
       <c r="B13">
-        <v>0.9948993325233459</v>
+        <v>0.9998946189880371</v>
       </c>
       <c r="C13">
-        <v>0.004861451219767332</v>
+        <v>4.76097411592491E-05</v>
       </c>
       <c r="D13">
-        <v>0.9982098340988159</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>0.01197303365916014</v>
+        <v>0.0003509992093313485</v>
       </c>
       <c r="B14">
-        <v>0.9946706295013428</v>
+        <v>0.9999122023582458</v>
       </c>
       <c r="C14">
-        <v>0.004503251984715462</v>
+        <v>3.694478436955251E-05</v>
       </c>
       <c r="D14">
-        <v>0.9983888268470764</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>0.01186482422053814</v>
+        <v>0.000989259104244411</v>
       </c>
       <c r="B15">
-        <v>0.9946002960205078</v>
+        <v>0.9996839165687561</v>
       </c>
       <c r="C15">
-        <v>0.004596328362822533</v>
+        <v>6.552002741955221E-05</v>
       </c>
       <c r="D15">
-        <v>0.9983888268470764</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>0.0121602788567543</v>
+        <v>0.0001409975229762495</v>
       </c>
       <c r="B16">
-        <v>0.9946178793907166</v>
+        <v>0.9999824166297913</v>
       </c>
       <c r="C16">
-        <v>0.004735705442726612</v>
+        <v>3.014301182702184E-05</v>
       </c>
       <c r="D16">
-        <v>0.9982098340988159</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>0.01226719655096531</v>
+        <v>0.0002642763138283044</v>
       </c>
       <c r="B17">
-        <v>0.9951103925704956</v>
+        <v>0.9999297857284546</v>
       </c>
       <c r="C17">
-        <v>0.004877014551311731</v>
+        <v>2.164144098060206E-05</v>
       </c>
       <c r="D17">
-        <v>0.9983888268470764</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>0.01121153589338064</v>
+        <v>0.0004353784024715424</v>
       </c>
       <c r="B18">
-        <v>0.9948993325233459</v>
+        <v>0.9998946189880371</v>
       </c>
       <c r="C18">
-        <v>0.004190259147435427</v>
+        <v>3.993677455582656E-05</v>
       </c>
       <c r="D18">
-        <v>0.9983888268470764</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>0.01163792703300714</v>
+        <v>0.0006414831732399762</v>
       </c>
       <c r="B19">
-        <v>0.9948816895484924</v>
+        <v>0.9998770952224731</v>
       </c>
       <c r="C19">
-        <v>0.003926425706595182</v>
+        <v>1.244471786776558E-05</v>
       </c>
       <c r="D19">
-        <v>0.9983888268470764</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>0.01082005351781845</v>
+        <v>0.0004955293843522668</v>
       </c>
       <c r="B20">
-        <v>0.9953742027282715</v>
+        <v>0.9998770952224731</v>
       </c>
       <c r="C20">
-        <v>0.003532412461936474</v>
+        <v>1.618578153284034E-06</v>
       </c>
       <c r="D20">
-        <v>0.9983888268470764</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>0.01082348823547363</v>
+        <v>0.0003335158980917186</v>
       </c>
       <c r="B21">
-        <v>0.9953214526176453</v>
+        <v>0.9998946189880371</v>
       </c>
       <c r="C21">
-        <v>0.003465659916400909</v>
+        <v>8.271902515843976E-06</v>
       </c>
       <c r="D21">
-        <v>0.9983888268470764</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>0.01111641898751259</v>
+        <v>0.0005455230129882693</v>
       </c>
       <c r="B22">
-        <v>0.9949169158935547</v>
+        <v>0.9998770952224731</v>
       </c>
       <c r="C22">
-        <v>0.003731324104592204</v>
+        <v>1.277367346119718E-06</v>
       </c>
       <c r="D22">
-        <v>0.9983888268470764</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>0.01132191065698862</v>
+        <v>0.0001853463618317619</v>
       </c>
       <c r="B23">
-        <v>0.9951807260513306</v>
+        <v>0.9999824166297913</v>
       </c>
       <c r="C23">
-        <v>0.003710911376401782</v>
+        <v>1.074944748324924E-06</v>
       </c>
       <c r="D23">
-        <v>0.9983888268470764</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>0.01050199754536152</v>
+        <v>0.0008273056009784341</v>
       </c>
       <c r="B24">
-        <v>0.9949872493743896</v>
+        <v>0.9998595118522644</v>
       </c>
       <c r="C24">
-        <v>0.003639706643298268</v>
+        <v>0.0001078614877769724</v>
       </c>
       <c r="D24">
-        <v>0.9983888268470764</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>0.01137677021324635</v>
+        <v>0.000437478709500283</v>
       </c>
       <c r="B25">
-        <v>0.9947234392166138</v>
+        <v>0.9998419880867004</v>
       </c>
       <c r="C25">
-        <v>0.00347747397609055</v>
+        <v>1.591868931427598E-05</v>
       </c>
       <c r="D25">
-        <v>0.9983888268470764</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>0.01186009123921394</v>
+        <v>0.0002174984983867034</v>
       </c>
       <c r="B26">
-        <v>0.9944244027137756</v>
+        <v>0.9999473094940186</v>
       </c>
       <c r="C26">
-        <v>0.003437234088778496</v>
+        <v>2.495477019692771E-06</v>
       </c>
       <c r="D26">
-        <v>0.9983888268470764</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>0.01105994638055563</v>
+        <v>4.839718894800171E-05</v>
       </c>
       <c r="B27">
-        <v>0.9949169158935547</v>
+        <v>0.9999824166297913</v>
       </c>
       <c r="C27">
-        <v>0.00333186355419457</v>
+        <v>3.478202472706471E-07</v>
       </c>
       <c r="D27">
-        <v>0.9983888268470764</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>0.01140361092984676</v>
+        <v>0.0005956218228675425</v>
       </c>
       <c r="B28">
-        <v>0.994705855846405</v>
+        <v>0.9998946189880371</v>
       </c>
       <c r="C28">
-        <v>0.004107674583792686</v>
+        <v>2.552928435761714E-06</v>
       </c>
       <c r="D28">
-        <v>0.9983888268470764</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>0.01171308010816574</v>
+        <v>0.0005976655520498753</v>
       </c>
       <c r="B29">
-        <v>0.99477618932724</v>
+        <v>0.9998770952224731</v>
       </c>
       <c r="C29">
-        <v>0.003441446227952838</v>
+        <v>1.937990600708872E-05</v>
       </c>
       <c r="D29">
-        <v>0.9983888268470764</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>0.01109122298657894</v>
+        <v>0.0002494436921551824</v>
       </c>
       <c r="B30">
-        <v>0.9948113560676575</v>
+        <v>0.9999648928642273</v>
       </c>
       <c r="C30">
-        <v>0.003396149957552552</v>
+        <v>9.739025699673221E-06</v>
       </c>
       <c r="D30">
-        <v>0.9983888268470764</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>0.01133560016751289</v>
+        <v>0.0001364455092698336</v>
       </c>
       <c r="B31">
-        <v>0.9949169158935547</v>
+        <v>0.9999824166297913</v>
       </c>
       <c r="C31">
-        <v>0.003512562718242407</v>
+        <v>3.331159405206563E-06</v>
       </c>
       <c r="D31">
-        <v>0.9983888268470764</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>0.01069898810237646</v>
+        <v>0.0003935116110369563</v>
       </c>
       <c r="B32">
-        <v>0.9953566193580627</v>
+        <v>0.9999473094940186</v>
       </c>
       <c r="C32">
-        <v>0.003510243725031614</v>
+        <v>1.750265823829977E-06</v>
       </c>
       <c r="D32">
-        <v>0.9983888268470764</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>0.01149099785834551</v>
+        <v>0.0003499925951473415</v>
       </c>
       <c r="B33">
-        <v>0.994846522808075</v>
+        <v>0.9999648928642273</v>
       </c>
       <c r="C33">
-        <v>0.003312453627586365</v>
+        <v>1.911290610223659E-06</v>
       </c>
       <c r="D33">
-        <v>0.9983888268470764</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>0.01052993629127741</v>
+        <v>0.0001907898404169828</v>
       </c>
       <c r="B34">
-        <v>0.9953566193580627</v>
+        <v>0.9999824166297913</v>
       </c>
       <c r="C34">
-        <v>0.003386885160580277</v>
+        <v>1.548062755318824E-05</v>
       </c>
       <c r="D34">
-        <v>0.9983888268470764</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>0.01091468241065741</v>
+        <v>3.466897032922134E-05</v>
       </c>
       <c r="B35">
-        <v>0.9948289394378662</v>
+        <v>1</v>
       </c>
       <c r="C35">
-        <v>0.003334768349304795</v>
+        <v>1.639785637053137E-06</v>
       </c>
       <c r="D35">
-        <v>0.9983888268470764</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>0.01085885148495436</v>
+        <v>0.0004706543695647269</v>
       </c>
       <c r="B36">
-        <v>0.9950928092002869</v>
+        <v>0.9999122023582458</v>
       </c>
       <c r="C36">
-        <v>0.003491014009341598</v>
+        <v>0.003496474819257855</v>
       </c>
       <c r="D36">
-        <v>0.9983888268470764</v>
+        <v>0.998979926109314</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>0.01094266586005688</v>
+        <v>0.0009024746832437813</v>
       </c>
       <c r="B37">
-        <v>0.9950751662254333</v>
+        <v>0.9998946189880371</v>
       </c>
       <c r="C37">
-        <v>0.003286988940089941</v>
+        <v>9.133049161391682E-07</v>
       </c>
       <c r="D37">
-        <v>0.9983888268470764</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>0.01109958812594414</v>
+        <v>4.606090442393906E-05</v>
       </c>
       <c r="B38">
-        <v>0.9948993325233459</v>
+        <v>0.9999824166297913</v>
       </c>
       <c r="C38">
-        <v>0.003298672381788492</v>
+        <v>3.700332911193982E-07</v>
       </c>
       <c r="D38">
-        <v>0.9983888268470764</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>0.01118524372577667</v>
+        <v>0.0003337124362587929</v>
       </c>
       <c r="B39">
-        <v>0.9949520826339722</v>
+        <v>0.9998946189880371</v>
       </c>
       <c r="C39">
-        <v>0.003441807115450501</v>
+        <v>2.365155069128377E-06</v>
       </c>
       <c r="D39">
-        <v>0.9983888268470764</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>0.01089760567992926</v>
+        <v>3.623387237894349E-05</v>
       </c>
       <c r="B40">
-        <v>0.9950224161148071</v>
+        <v>1</v>
       </c>
       <c r="C40">
-        <v>0.003245218424126506</v>
+        <v>6.201086932833277E-08</v>
       </c>
       <c r="D40">
-        <v>0.9983888268470764</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>0.01111915521323681</v>
+        <v>1.197950768982992E-05</v>
       </c>
       <c r="B41">
-        <v>0.9949344992637634</v>
+        <v>1</v>
       </c>
       <c r="C41">
-        <v>0.003275980241596699</v>
+        <v>8.255703676240955E-08</v>
       </c>
       <c r="D41">
-        <v>0.9983888268470764</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>0.0106629841029644</v>
+        <v>0.0003608142142184079</v>
       </c>
       <c r="B42">
-        <v>0.9952334761619568</v>
+        <v>0.9999473094940186</v>
       </c>
       <c r="C42">
-        <v>0.003240708261728287</v>
+        <v>4.527326780134899E-08</v>
       </c>
       <c r="D42">
-        <v>0.9983888268470764</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>0.01059510000050068</v>
+        <v>0.0003064493939746171</v>
       </c>
       <c r="B43">
-        <v>0.9952334761619568</v>
+        <v>0.9998770952224731</v>
       </c>
       <c r="C43">
-        <v>0.003229593392461538</v>
+        <v>2.739975535348549E-08</v>
       </c>
       <c r="D43">
-        <v>0.9983888268470764</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>0.01049361750483513</v>
+        <v>0.0002186317869927734</v>
       </c>
       <c r="B44">
-        <v>0.9951807260513306</v>
+        <v>0.9998946189880371</v>
       </c>
       <c r="C44">
-        <v>0.003406606148928404</v>
+        <v>8.580321377849032E-07</v>
       </c>
       <c r="D44">
-        <v>0.9983888268470764</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>0.01156157348304987</v>
+        <v>7.329012532863999E-06</v>
       </c>
       <c r="B45">
-        <v>0.9949169158935547</v>
+        <v>1</v>
       </c>
       <c r="C45">
-        <v>0.003254567738622427</v>
+        <v>9.789381465452607E-07</v>
       </c>
       <c r="D45">
-        <v>0.9983888268470764</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>0.01058928575366735</v>
+        <v>0.0009627611725591123</v>
       </c>
       <c r="B46">
-        <v>0.9950575828552246</v>
+        <v>0.9999122023582458</v>
       </c>
       <c r="C46">
-        <v>0.003156148362904787</v>
+        <v>7.829431751815719E-07</v>
       </c>
       <c r="D46">
-        <v>0.9983888268470764</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>0.01091843005269766</v>
+        <v>0.000201188595383428</v>
       </c>
       <c r="B47">
-        <v>0.9949696660041809</v>
+        <v>0.9999297857284546</v>
       </c>
       <c r="C47">
-        <v>0.003117673331871629</v>
+        <v>4.813603027287172E-07</v>
       </c>
       <c r="D47">
-        <v>0.9983888268470764</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>0.01047874242067337</v>
+        <v>0.0006652078009210527</v>
       </c>
       <c r="B48">
-        <v>0.9952510595321655</v>
+        <v>0.9998946189880371</v>
       </c>
       <c r="C48">
-        <v>0.003077966161072254</v>
+        <v>1.048366016220825E-06</v>
       </c>
       <c r="D48">
-        <v>0.9983888268470764</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>0.01141723897308111</v>
+        <v>4.825552969123237E-05</v>
       </c>
       <c r="B49">
-        <v>0.9945475459098816</v>
+        <v>0.9999824166297913</v>
       </c>
       <c r="C49">
-        <v>0.00321592390537262</v>
+        <v>3.782112116823555E-07</v>
       </c>
       <c r="D49">
-        <v>0.9983888268470764</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>0.01064102258533239</v>
+        <v>0.0001166382280644029</v>
       </c>
       <c r="B50">
-        <v>0.9949344992637634</v>
+        <v>0.9999648928642273</v>
       </c>
       <c r="C50">
-        <v>0.003173034870997071</v>
+        <v>2.140106580839074E-08</v>
       </c>
       <c r="D50">
-        <v>0.9983888268470764</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>0.01126331277191639</v>
+        <v>0.0004509545397013426</v>
       </c>
       <c r="B51">
-        <v>0.9948816895484924</v>
+        <v>0.9998946189880371</v>
       </c>
       <c r="C51">
-        <v>0.003117162268608809</v>
+        <v>6.281791229412192E-07</v>
       </c>
       <c r="D51">
-        <v>0.9983888268470764</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/run_log/run_results/train_history/training_history_run_17.xlsx
+++ b/run_log/run_results/train_history/training_history_run_17.xlsx
@@ -395,69 +395,69 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.05952403694391251</v>
+        <v>0.08114146441221237</v>
       </c>
       <c r="B2">
-        <v>0.9840734601020813</v>
+        <v>0.9809914231300354</v>
       </c>
       <c r="C2">
-        <v>0.03294847160577774</v>
+        <v>0.004238920751959085</v>
       </c>
       <c r="D2">
-        <v>0.995579719543457</v>
+        <v>0.9994334578514099</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.009315329603850842</v>
+        <v>0.0120008634403348</v>
       </c>
       <c r="B3">
-        <v>0.9985074400901794</v>
+        <v>0.9977167844772339</v>
       </c>
       <c r="C3">
-        <v>0.02383473142981529</v>
+        <v>0.002266512485221028</v>
       </c>
       <c r="D3">
-        <v>0.995579719543457</v>
+        <v>0.9994901418685913</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>0.004900739993900061</v>
+        <v>0.006338009610772133</v>
       </c>
       <c r="B4">
-        <v>0.9988410472869873</v>
+        <v>0.9982394576072693</v>
       </c>
       <c r="C4">
-        <v>0.0116785941645503</v>
+        <v>0.0003855702525470406</v>
       </c>
       <c r="D4">
-        <v>0.9986399412155151</v>
+        <v>0.9997167587280273</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.002231738762930036</v>
+        <v>0.003748388728126884</v>
       </c>
       <c r="B5">
-        <v>0.9993854165077209</v>
+        <v>0.9990096688270569</v>
       </c>
       <c r="C5">
-        <v>0.009853780269622803</v>
+        <v>0.0001711917575448751</v>
       </c>
       <c r="D5">
-        <v>0.9986399412155151</v>
+        <v>0.999886691570282</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.00176722917240113</v>
+        <v>0.002213372616097331</v>
       </c>
       <c r="B6">
-        <v>0.9994907975196838</v>
+        <v>0.9994498491287231</v>
       </c>
       <c r="C6">
-        <v>0.0007578931981697679</v>
+        <v>4.545753836282529E-05</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -465,13 +465,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.001555059570819139</v>
+        <v>0.001717066159471869</v>
       </c>
       <c r="B7">
-        <v>0.9996312260627747</v>
+        <v>0.9995323419570923</v>
       </c>
       <c r="C7">
-        <v>0.0004766620113514364</v>
+        <v>1.596310903551057E-05</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -479,69 +479,69 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.001264742226339877</v>
+        <v>0.001301339827477932</v>
       </c>
       <c r="B8">
-        <v>0.9996312260627747</v>
+        <v>0.9996148943901062</v>
       </c>
       <c r="C8">
-        <v>0.0006716083735227585</v>
+        <v>0.0001465714885853231</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.9999433755874634</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>0.001739514176733792</v>
+        <v>0.00116671621799469</v>
       </c>
       <c r="B9">
-        <v>0.9996137022972107</v>
+        <v>0.9996973872184753</v>
       </c>
       <c r="C9">
-        <v>0.001007005921564996</v>
+        <v>8.973383046395611E-06</v>
       </c>
       <c r="D9">
-        <v>0.9993199706077576</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>0.0008868636796250939</v>
+        <v>0.001023511402308941</v>
       </c>
       <c r="B10">
-        <v>0.9998244047164917</v>
+        <v>0.9996423721313477</v>
       </c>
       <c r="C10">
-        <v>0.0005952870124019682</v>
+        <v>1.350394177279668E-05</v>
       </c>
       <c r="D10">
-        <v>0.9996599555015564</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>0.0006371597992256284</v>
+        <v>0.000967208354268223</v>
       </c>
       <c r="B11">
-        <v>0.9998419880867004</v>
+        <v>0.9997249245643616</v>
       </c>
       <c r="C11">
-        <v>0.002753538312390447</v>
+        <v>1.728609731799224E-06</v>
       </c>
       <c r="D11">
-        <v>0.9993199706077576</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>0.001135466271080077</v>
+        <v>0.001303845667280257</v>
       </c>
       <c r="B12">
-        <v>0.9997190237045288</v>
+        <v>0.9996699094772339</v>
       </c>
       <c r="C12">
-        <v>0.0001414724247297272</v>
+        <v>2.055137429124443E-06</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -549,13 +549,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>0.00044366589281708</v>
+        <v>0.0007250634371303022</v>
       </c>
       <c r="B13">
-        <v>0.9998946189880371</v>
+        <v>0.9998349547386169</v>
       </c>
       <c r="C13">
-        <v>4.76097411592491E-05</v>
+        <v>8.045315098570427E-07</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -563,13 +563,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>0.0003509992093313485</v>
+        <v>0.001120330183766782</v>
       </c>
       <c r="B14">
-        <v>0.9999122023582458</v>
+        <v>0.9996148943901062</v>
       </c>
       <c r="C14">
-        <v>3.694478436955251E-05</v>
+        <v>9.671331326899235E-07</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -577,13 +577,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>0.000989259104244411</v>
+        <v>0.001014819252304733</v>
       </c>
       <c r="B15">
-        <v>0.9996839165687561</v>
+        <v>0.9996973872184753</v>
       </c>
       <c r="C15">
-        <v>6.552002741955221E-05</v>
+        <v>6.067150025046431E-06</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -591,13 +591,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>0.0001409975229762495</v>
+        <v>0.001179892220534384</v>
       </c>
       <c r="B16">
-        <v>0.9999824166297913</v>
+        <v>0.9997249245643616</v>
       </c>
       <c r="C16">
-        <v>3.014301182702184E-05</v>
+        <v>9.006259347188461E-07</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -605,13 +605,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>0.0002642763138283044</v>
+        <v>0.0001616039080545306</v>
       </c>
       <c r="B17">
-        <v>0.9999297857284546</v>
+        <v>0.9999174475669861</v>
       </c>
       <c r="C17">
-        <v>2.164144098060206E-05</v>
+        <v>2.74819853984809E-07</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -619,13 +619,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>0.0004353784024715424</v>
+        <v>0.0006276721833273768</v>
       </c>
       <c r="B18">
-        <v>0.9998946189880371</v>
+        <v>0.999752402305603</v>
       </c>
       <c r="C18">
-        <v>3.993677455582656E-05</v>
+        <v>5.336188678484177E-06</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -633,13 +633,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>0.0006414831732399762</v>
+        <v>0.0004064560052938759</v>
       </c>
       <c r="B19">
-        <v>0.9998770952224731</v>
+        <v>0.9998624324798584</v>
       </c>
       <c r="C19">
-        <v>1.244471786776558E-05</v>
+        <v>1.143510189649533E-06</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -647,13 +647,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>0.0004955293843522668</v>
+        <v>0.000128565399791114</v>
       </c>
       <c r="B20">
-        <v>0.9998770952224731</v>
+        <v>0.9999174475669861</v>
       </c>
       <c r="C20">
-        <v>1.618578153284034E-06</v>
+        <v>1.995312914004899E-06</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -661,13 +661,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>0.0003335158980917186</v>
+        <v>0.001180194783955812</v>
       </c>
       <c r="B21">
-        <v>0.9998946189880371</v>
+        <v>0.9998074173927307</v>
       </c>
       <c r="C21">
-        <v>8.271902515843976E-06</v>
+        <v>1.524084609627607E-07</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -675,13 +675,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>0.0005455230129882693</v>
+        <v>0.0004818485758733004</v>
       </c>
       <c r="B22">
-        <v>0.9998770952224731</v>
+        <v>0.9998899698257446</v>
       </c>
       <c r="C22">
-        <v>1.277367346119718E-06</v>
+        <v>1.147773431853238E-07</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -689,13 +689,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>0.0001853463618317619</v>
+        <v>3.240298974560574E-05</v>
       </c>
       <c r="B23">
-        <v>0.9999824166297913</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>1.074944748324924E-06</v>
+        <v>1.488972856122928E-07</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -703,13 +703,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>0.0008273056009784341</v>
+        <v>0.0004277201369404793</v>
       </c>
       <c r="B24">
-        <v>0.9998595118522644</v>
+        <v>0.9998349547386169</v>
       </c>
       <c r="C24">
-        <v>0.0001078614877769724</v>
+        <v>2.379114683037642E-08</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -717,13 +717,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>0.000437478709500283</v>
+        <v>0.0007767141796648502</v>
       </c>
       <c r="B25">
-        <v>0.9998419880867004</v>
+        <v>0.9997799396514893</v>
       </c>
       <c r="C25">
-        <v>1.591868931427598E-05</v>
+        <v>1.382940695293655E-07</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -731,13 +731,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>0.0002174984983867034</v>
+        <v>7.83647337811999E-05</v>
       </c>
       <c r="B26">
-        <v>0.9999473094940186</v>
+        <v>0.9999724626541138</v>
       </c>
       <c r="C26">
-        <v>2.495477019692771E-06</v>
+        <v>5.751318710167652E-08</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -745,13 +745,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>4.839718894800171E-05</v>
+        <v>0.0004881877976004034</v>
       </c>
       <c r="B27">
-        <v>0.9999824166297913</v>
+        <v>0.9998624324798584</v>
       </c>
       <c r="C27">
-        <v>3.478202472706471E-07</v>
+        <v>1.093224923920388E-07</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -759,13 +759,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>0.0005956218228675425</v>
+        <v>0.000755710992962122</v>
       </c>
       <c r="B28">
-        <v>0.9998946189880371</v>
+        <v>0.9999174475669861</v>
       </c>
       <c r="C28">
-        <v>2.552928435761714E-06</v>
+        <v>1.513871552560886E-07</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -773,13 +773,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>0.0005976655520498753</v>
+        <v>0.000385006598662585</v>
       </c>
       <c r="B29">
-        <v>0.9998770952224731</v>
+        <v>0.9999174475669861</v>
       </c>
       <c r="C29">
-        <v>1.937990600708872E-05</v>
+        <v>2.938055310153231E-08</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -787,13 +787,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>0.0002494436921551824</v>
+        <v>0.0004350239178165793</v>
       </c>
       <c r="B30">
-        <v>0.9999648928642273</v>
+        <v>0.9998899698257446</v>
       </c>
       <c r="C30">
-        <v>9.739025699673221E-06</v>
+        <v>5.855044449276647E-08</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -801,13 +801,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>0.0001364455092698336</v>
+        <v>0.0004067732661496848</v>
       </c>
       <c r="B31">
-        <v>0.9999824166297913</v>
+        <v>0.9998899698257446</v>
       </c>
       <c r="C31">
-        <v>3.331159405206563E-06</v>
+        <v>1.809931049479019E-08</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -815,13 +815,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>0.0003935116110369563</v>
+        <v>0.0007714646053500473</v>
       </c>
       <c r="B32">
-        <v>0.9999473094940186</v>
+        <v>0.9998899698257446</v>
       </c>
       <c r="C32">
-        <v>1.750265823829977E-06</v>
+        <v>8.240254345537323E-08</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -829,13 +829,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>0.0003499925951473415</v>
+        <v>0.0002712910063564777</v>
       </c>
       <c r="B33">
-        <v>0.9999648928642273</v>
+        <v>0.9998899698257446</v>
       </c>
       <c r="C33">
-        <v>1.911290610223659E-06</v>
+        <v>5.446136128739454E-07</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -843,13 +843,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>0.0001907898404169828</v>
+        <v>0.0002501929993741214</v>
       </c>
       <c r="B34">
-        <v>0.9999824166297913</v>
+        <v>0.9999174475669861</v>
       </c>
       <c r="C34">
-        <v>1.548062755318824E-05</v>
+        <v>1.147415140678731E-08</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -857,13 +857,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>3.466897032922134E-05</v>
+        <v>0.0001105751289287582</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0.9999724626541138</v>
       </c>
       <c r="C35">
-        <v>1.639785637053137E-06</v>
+        <v>9.002507184163733E-09</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -871,27 +871,27 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>0.0004706543695647269</v>
+        <v>0.0002686089428607374</v>
       </c>
       <c r="B36">
-        <v>0.9999122023582458</v>
+        <v>0.9998349547386169</v>
       </c>
       <c r="C36">
-        <v>0.003496474819257855</v>
+        <v>6.442938627060357E-09</v>
       </c>
       <c r="D36">
-        <v>0.998979926109314</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>0.0009024746832437813</v>
+        <v>0.000255001854384318</v>
       </c>
       <c r="B37">
-        <v>0.9998946189880371</v>
+        <v>0.9999174475669861</v>
       </c>
       <c r="C37">
-        <v>9.133049161391682E-07</v>
+        <v>2.556033251721601E-08</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -899,13 +899,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>4.606090442393906E-05</v>
+        <v>0.0002700144832488149</v>
       </c>
       <c r="B38">
-        <v>0.9999824166297913</v>
+        <v>0.9999174475669861</v>
       </c>
       <c r="C38">
-        <v>3.700332911193982E-07</v>
+        <v>4.502987493992805E-08</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -913,13 +913,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>0.0003337124362587929</v>
+        <v>0.0002461221301928163</v>
       </c>
       <c r="B39">
-        <v>0.9998946189880371</v>
+        <v>0.9999449849128723</v>
       </c>
       <c r="C39">
-        <v>2.365155069128377E-06</v>
+        <v>6.44353974621481E-07</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -927,13 +927,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>3.623387237894349E-05</v>
+        <v>3.044982440769672E-05</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
       <c r="C40">
-        <v>6.201086932833277E-08</v>
+        <v>1.057547560634475E-08</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -941,13 +941,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>1.197950768982992E-05</v>
+        <v>0.00058222800726071</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0.9998074173927307</v>
       </c>
       <c r="C41">
-        <v>8.255703676240955E-08</v>
+        <v>5.105587774778542E-08</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -955,13 +955,13 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>0.0003608142142184079</v>
+        <v>0.0003211797447875142</v>
       </c>
       <c r="B42">
-        <v>0.9999473094940186</v>
+        <v>0.9999174475669861</v>
       </c>
       <c r="C42">
-        <v>4.527326780134899E-08</v>
+        <v>1.126409632234981E-08</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -969,13 +969,13 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>0.0003064493939746171</v>
+        <v>0.0002400972443865612</v>
       </c>
       <c r="B43">
-        <v>0.9998770952224731</v>
+        <v>0.9999174475669861</v>
       </c>
       <c r="C43">
-        <v>2.739975535348549E-08</v>
+        <v>1.877511479619898E-09</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -983,13 +983,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>0.0002186317869927734</v>
+        <v>1.592722037457861E-05</v>
       </c>
       <c r="B44">
-        <v>0.9998946189880371</v>
+        <v>1</v>
       </c>
       <c r="C44">
-        <v>8.580321377849032E-07</v>
+        <v>5.60554824780013E-10</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -997,13 +997,13 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>7.329012532863999E-06</v>
+        <v>0.0004319947911426425</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>0.9999449849128723</v>
       </c>
       <c r="C45">
-        <v>9.789381465452607E-07</v>
+        <v>2.431306489469875E-09</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -1011,13 +1011,13 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>0.0009627611725591123</v>
+        <v>0.0001495133765274659</v>
       </c>
       <c r="B46">
-        <v>0.9999122023582458</v>
+        <v>0.9999174475669861</v>
       </c>
       <c r="C46">
-        <v>7.829431751815719E-07</v>
+        <v>4.545149590029496E-09</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -1025,13 +1025,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>0.000201188595383428</v>
+        <v>0.0003329838218633085</v>
       </c>
       <c r="B47">
-        <v>0.9999297857284546</v>
+        <v>0.9999174475669861</v>
       </c>
       <c r="C47">
-        <v>4.813603027287172E-07</v>
+        <v>1.978817998349314E-09</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -1039,27 +1039,27 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>0.0006652078009210527</v>
+        <v>0.0001424317451892421</v>
       </c>
       <c r="B48">
-        <v>0.9998946189880371</v>
+        <v>0.9999724626541138</v>
       </c>
       <c r="C48">
-        <v>1.048366016220825E-06</v>
+        <v>0.0002202388131991029</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>0.9999433755874634</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>4.825552969123237E-05</v>
+        <v>0.0004827820521313697</v>
       </c>
       <c r="B49">
-        <v>0.9999824166297913</v>
+        <v>0.9998349547386169</v>
       </c>
       <c r="C49">
-        <v>3.782112116823555E-07</v>
+        <v>5.943082026504953E-09</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -1067,13 +1067,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>0.0001166382280644029</v>
+        <v>0.0004122885584365577</v>
       </c>
       <c r="B50">
-        <v>0.9999648928642273</v>
+        <v>0.9998899698257446</v>
       </c>
       <c r="C50">
-        <v>2.140106580839074E-08</v>
+        <v>4.139966147675977E-09</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -1081,13 +1081,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>0.0004509545397013426</v>
+        <v>4.198019450996071E-05</v>
       </c>
       <c r="B51">
-        <v>0.9998946189880371</v>
+        <v>0.9999724626541138</v>
       </c>
       <c r="C51">
-        <v>6.281791229412192E-07</v>
+        <v>7.834263238137851E-10</v>
       </c>
       <c r="D51">
         <v>1</v>
